--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yang/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C559732-93FC-4C4E-8DDE-37C70ED3D5A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2166293C-0451-2140-B8E4-7C355AD4F5FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="8840" windowWidth="28040" windowHeight="17440" xr2:uid="{5803FF28-85D3-4548-92D0-C614494AD1B6}"/>
+    <workbookView xWindow="17040" yWindow="2620" windowWidth="28040" windowHeight="17440" xr2:uid="{5803FF28-85D3-4548-92D0-C614494AD1B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>First Name</t>
   </si>
@@ -50,37 +50,55 @@
     <t>Wang</t>
   </si>
   <si>
-    <t>Huang</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>james@student.unimelb.edu.au</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>victor@student.unimelb.edu.au</t>
-  </si>
-  <si>
-    <t>Hanson</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>david@student.unimelb.edu.au</t>
-  </si>
-  <si>
-    <t>Chloe</t>
-  </si>
-  <si>
-    <t>chole@student.unimelb.edu.au</t>
+    <t>Norton</t>
+  </si>
+  <si>
+    <t>Wei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">norton.wei@unimelb.edu.au </t>
+  </si>
+  <si>
+    <t>yalu2@student.unimelb.edu.au</t>
+  </si>
+  <si>
+    <t>Yang</t>
+  </si>
+  <si>
+    <t>Lu</t>
+  </si>
+  <si>
+    <t>yueyiz1@student.unimelb.edu.au</t>
+  </si>
+  <si>
+    <t>Yueyi</t>
+  </si>
+  <si>
+    <t>Zhang</t>
+  </si>
+  <si>
+    <t>Yuting</t>
+  </si>
+  <si>
+    <t>Cai</t>
+  </si>
+  <si>
+    <t>ycca1@student.unimelb.edu.au</t>
+  </si>
+  <si>
+    <t>Shun</t>
+  </si>
+  <si>
+    <t>Yin</t>
+  </si>
+  <si>
+    <t>yisy1@student.unimelb.edu.au</t>
+  </si>
+  <si>
+    <t>Meining</t>
+  </si>
+  <si>
+    <t>meiningw@student.unimelb.edu.au</t>
   </si>
 </sst>
 </file>
@@ -446,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7164A7-4830-AA44-9473-B37F77208497}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,66 +494,93 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>111111</v>
+        <v>1111</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>222222</v>
+        <v>2222</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>333333</v>
+        <v>3333</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>444444</v>
+        <v>4444</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5555</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6666</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{52E0D3AC-39DD-5F4F-BB09-401B97A6302F}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{2CAB91AE-FB5A-574B-84A3-92F3FE18CD9C}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{2652F1B1-37CA-7F45-8D3F-56E7D916295F}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{07887576-23C0-9240-8AED-3B10EBA1D9C8}"/>
+    <hyperlink ref="D4" r:id="rId1" display="mailto:yalu2@student.unimelb.edu.au" xr:uid="{61CE4DBC-2E31-3548-BCAA-1E3B472C1DCE}"/>
+    <hyperlink ref="D5" r:id="rId2" display="mailto:ycca1@student.unimelb.edu.au" xr:uid="{9F305C69-FFE4-2842-B9C1-81C5E4E255D5}"/>
+    <hyperlink ref="D3" r:id="rId3" display="mailto:meiningw@student.unimelb.edu.au" xr:uid="{6996817B-A1A6-A54C-BC3A-013B5BDA75CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
